--- a/biology/Botanique/Hylesinus/Hylesinus.xlsx
+++ b/biology/Botanique/Hylesinus/Hylesinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylesinus est un genre d'insectes de l'ordre des coléoptères (insectes possédant en général deux paires d'ailes incluant entre autres les scarabées, coccinelles, lucanes, chrysomèles, hannetons, charançons, carabes...), de la famille des Curculionidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylesinus aculeatus Say, 1824
 Hylesinus californicus (Swaine, 1916) - Scolyte du frêne de l'ouest
